--- a/CG_Work/Spark_Code_Samples.xlsx
+++ b/CG_Work/Spark_Code_Samples.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="880">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="884">
   <si>
     <t>Code</t>
   </si>
@@ -2719,6 +2719,47 @@
 join TVSWZ SP2 on (OS.SOURCE_LOCATION_GID = SP2.VSTEL)
 GROUP BY OSH.SHIPMENT_GID, OSH.SHIPMENT_STOP_NUM, OSH.I_TRANSACTION_NO, OSD.S_SHIP_UNIT_GID, OSS.STATUS_CODE_GID, OSS.INSERT_DATE, OSH.EVENT_LOCATION_GID, OSS.STATUS_REASON_CODE_GID, OSS.EVENTDATE, OSR.SHIPMENT_REFNUM_VALUE, SR.SHIPMENT_REFNUM_VALUE, OS.SOURCE_LOCATION_GID, SP.WERKS, OL.LOCATION_NAME, OL.CITY, OL.PROVINCE_CODE, OL.POSTAL_CODE, OL.COUNTRY_CODE3_GID, DL.LOCATION_NAME, DL.CITY, DL.PROVINCE_CODE, DL.POSTAL_CODE, DL.COUNTRY_CODE3_GID, OS.SERVPROV_GID, CL.LOCATION_NAME, OS.TRANSPORT_MODE_GID, SR.SHIPMENT_REFNUM_VALUE, OS.SHIPMENT_GID, SP1.WERKS, SP2.WERKS
 """)</t>
+  </si>
+  <si>
+    <t>Sort Data</t>
+  </si>
+  <si>
+    <t>val sort_path_AZG1SP96A00 = path_AZG1SP96A00.sort("9AMATNR") ==&gt; Ascending
+val sort_path_AZG1SP96A00 = path_AZG1SP96A00.sort(desc("9AMATNR")) ==&gt; Descending</t>
+  </si>
+  <si>
+    <t>Window Functions:
+Group by a field and window over date
+In this example we are comparing date or curr rec with date of previous rec
+Code in Pyspark</t>
+  </si>
+  <si>
+    <t>from pyspark.sql.functions import coalesce, col, datediff, lag, lit, sum as sum_
+from pyspark.sql.window import Window
+from pyspark.sql import *
+# Dataframe on which code would be applied
+df = spark.createDataFrame([Row(date='2016-01-01', group_by='group1', amt=5, get_first=1),
+                            Row(date='2016-01-10', group_by='group1', amt=5, get_first=2),
+                            Row(date='2016-02-01', group_by='group2', amt=10, get_first=3),
+                            Row(date='2016-02-28', group_by='group2', amt=20, get_first=3),
+                            Row(date='2016-02-29', group_by='group2', amt=30, get_first=3),
+                            Row(date='2016-04-02', group_by='group2', amt=8, get_first=4)])
+# Change the format of date field from string to date
+df_ = df.withColumn("date", col("date").cast("date"))
+# define window
+w = Window.partitionBy("group_by").orderBy("date")
+# Difference from the previous record or 0 if this is the first one
+diff = coalesce(datediff("date", lag("date", 1).over(w)), lit(0))
+# 0 if diff &lt;= 30, 1 otherwise
+indicator = (diff &gt; 30).cast("integer")       #-&gt; 0 if diff &lt;= 30, 1 otherwise
+# indicator = diff.cast("integer")            # just the difference between current and prev rec
+# Cumulative sum of indicators over the window
+subgroup = sum_(indicator).over(w).alias("subgroup")
+df_group = df_.select("*", subgroup).groupBy("group_by", "subgroup").sum("amt")
+display(df_group)
+# Now run the window transformation and sum the amount file for the window
+df_group = df_.select("*", subgroup).groupBy("group_by", "subgroup").sum("amt")
+display(df_group)</t>
   </si>
 </sst>
 </file>
@@ -2753,7 +2794,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2775,6 +2816,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF5F5F5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2824,7 +2871,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2864,6 +2911,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3170,27 +3220,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="157.140625" style="16" customWidth="1"/>
+    <col min="1" max="1" width="32.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="224.28515625" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="16" t="s">
+      <c r="A1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>3</v>
       </c>
@@ -3206,7 +3256,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>860</v>
       </c>
@@ -3214,76 +3264,96 @@
         <v>861</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+    <row r="6" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
         <v>862</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B6" s="16" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>880</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
         <v>864</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B8" s="16" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
         <v>866</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B9" s="16" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
         <v>868</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B10" s="16" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
         <v>870</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B11" s="16" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+    <row r="12" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
         <v>872</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B12" s="16" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
         <v>874</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B13" s="16" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
         <v>876</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B14" s="16" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+    <row r="15" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
         <v>878</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B15" s="16" t="s">
         <v>879</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+    </row>
+    <row r="18" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>882</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>883</v>
       </c>
     </row>
   </sheetData>
